--- a/data/trans_orig/P46-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P46-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{69AEB1DD-6263-441B-9F1F-AE49C278610D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{88A59229-AF3E-46F8-83A9-D6522A753946}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F0D2A498-1483-47BD-A103-2A061B6B8564}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{5E3B2B0F-C607-4B69-A5D9-5434E879A5C5}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1977" uniqueCount="1201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1977" uniqueCount="1234">
   <si>
     <t>Población según la opinión que tienen si tomasen el sol sin ninguna protección en 2007 (Tasa respuesta: 97,47%)</t>
   </si>
@@ -1471,7 +1471,139 @@
     <t>Población según la opinión que tienen si tomasen el sol sin ninguna protección en 2012 (Tasa respuesta: 98,05%)</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>32,07%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>37,69%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>30,51%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>33,82%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>36,27%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
   </si>
   <si>
     <t>2,29%</t>
@@ -1735,1356 +1867,1335 @@
     <t>18,83%</t>
   </si>
   <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>24,84%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>44,34%</t>
+  </si>
+  <si>
+    <t>37,56%</t>
+  </si>
+  <si>
+    <t>51,94%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>35,52%</t>
+  </si>
+  <si>
+    <t>36,56%</t>
+  </si>
+  <si>
+    <t>31,88%</t>
+  </si>
+  <si>
+    <t>41,87%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>39,83%</t>
+  </si>
+  <si>
+    <t>46,64%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>33,92%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>29,38%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>34,63%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>33,08%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>29,79%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>33,69%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>32,5%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>28,59%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>33,6%</t>
+  </si>
+  <si>
+    <t>30,21%</t>
+  </si>
+  <si>
+    <t>37,2%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>30,37%</t>
+  </si>
+  <si>
+    <t>30,19%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>33,05%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>36,91%</t>
+  </si>
+  <si>
+    <t>37,7%</t>
+  </si>
+  <si>
+    <t>34,4%</t>
+  </si>
+  <si>
+    <t>41,35%</t>
+  </si>
+  <si>
+    <t>35,43%</t>
+  </si>
+  <si>
+    <t>32,75%</t>
+  </si>
+  <si>
+    <t>37,87%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>27,32%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>Población según la opinión que tienen si tomasen el sol sin ninguna protección en 2016 (Tasa respuesta: 99,01%)</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>33,31%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>25,28%</t>
+  </si>
+  <si>
+    <t>28,08%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>31,94%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>37,11%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>29,74%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>28,44%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>34,16%</t>
+  </si>
+  <si>
+    <t>30,0%</t>
+  </si>
+  <si>
+    <t>38,45%</t>
+  </si>
+  <si>
+    <t>33,46%</t>
+  </si>
+  <si>
+    <t>41,85%</t>
+  </si>
+  <si>
+    <t>36,06%</t>
+  </si>
+  <si>
+    <t>33,03%</t>
+  </si>
+  <si>
+    <t>39,27%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>39,6%</t>
+  </si>
+  <si>
+    <t>34,29%</t>
+  </si>
+  <si>
+    <t>45,11%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>33,58%</t>
+  </si>
+  <si>
+    <t>45,84%</t>
+  </si>
+  <si>
+    <t>40,53%</t>
+  </si>
+  <si>
+    <t>51,67%</t>
+  </si>
+  <si>
+    <t>37,21%</t>
+  </si>
+  <si>
+    <t>33,33%</t>
+  </si>
+  <si>
+    <t>40,9%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>34,05%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>29,94%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>35,2%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
   </si>
   <si>
     <t>16,54%</t>
   </si>
   <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>44,34%</t>
-  </si>
-  <si>
-    <t>37,56%</t>
-  </si>
-  <si>
-    <t>51,94%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>35,52%</t>
-  </si>
-  <si>
-    <t>36,56%</t>
-  </si>
-  <si>
-    <t>31,88%</t>
-  </si>
-  <si>
-    <t>41,87%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>39,83%</t>
-  </si>
-  <si>
-    <t>46,64%</t>
-  </si>
-  <si>
-    <t>29,25%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>33,92%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>28,47%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>27,84%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>29,38%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>34,63%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>29,87%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>33,08%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>29,79%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>33,69%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>32,5%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>28,59%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>33,6%</t>
-  </si>
-  <si>
-    <t>30,21%</t>
-  </si>
-  <si>
-    <t>37,2%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>30,19%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>33,05%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>36,91%</t>
-  </si>
-  <si>
-    <t>37,7%</t>
-  </si>
-  <si>
-    <t>34,4%</t>
-  </si>
-  <si>
-    <t>41,35%</t>
-  </si>
-  <si>
-    <t>35,43%</t>
-  </si>
-  <si>
-    <t>32,75%</t>
-  </si>
-  <si>
-    <t>37,87%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>Población según la opinión que tienen si tomasen el sol sin ninguna protección en 2016 (Tasa respuesta: 99,01%)</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>27,78%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>33,31%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>25,28%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>31,94%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>37,11%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>34,16%</t>
-  </si>
-  <si>
-    <t>30,0%</t>
-  </si>
-  <si>
-    <t>38,45%</t>
-  </si>
-  <si>
-    <t>33,46%</t>
-  </si>
-  <si>
-    <t>41,85%</t>
-  </si>
-  <si>
-    <t>36,06%</t>
-  </si>
-  <si>
-    <t>33,03%</t>
-  </si>
-  <si>
-    <t>39,27%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>39,6%</t>
-  </si>
-  <si>
-    <t>34,29%</t>
-  </si>
-  <si>
-    <t>45,11%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>33,58%</t>
-  </si>
-  <si>
-    <t>45,84%</t>
-  </si>
-  <si>
-    <t>40,53%</t>
-  </si>
-  <si>
-    <t>51,67%</t>
-  </si>
-  <si>
-    <t>37,21%</t>
-  </si>
-  <si>
-    <t>33,33%</t>
-  </si>
-  <si>
-    <t>40,9%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>34,05%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>25,05%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>29,94%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>35,2%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
     <t>41,7%</t>
   </si>
   <si>
@@ -3346,9 +3457,6 @@
     <t>18,52%</t>
   </si>
   <si>
-    <t>24,7%</t>
-  </si>
-  <si>
     <t>19,8%</t>
   </si>
   <si>
@@ -3412,9 +3520,6 @@
     <t>2,28%</t>
   </si>
   <si>
-    <t>3,81%</t>
-  </si>
-  <si>
     <t>5,46%</t>
   </si>
   <si>
@@ -3559,9 +3664,6 @@
     <t>18,22%</t>
   </si>
   <si>
-    <t>16,89%</t>
-  </si>
-  <si>
     <t>19,5%</t>
   </si>
   <si>
@@ -3626,9 +3728,6 @@
   </si>
   <si>
     <t>23,32%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
   </si>
   <si>
     <t>24,88%</t>
@@ -4052,7 +4151,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCB57E49-6691-44A6-A62D-571B18065C58}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC509CC1-6F24-47CF-8489-C70ACA71C454}">
   <dimension ref="A1:Q67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -5212,7 +5311,7 @@
         <v>334</v>
       </c>
       <c r="I24" s="7">
-        <v>334602</v>
+        <v>334603</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>70</v>
@@ -6510,7 +6609,7 @@
         <v>551</v>
       </c>
       <c r="N49" s="7">
-        <v>561041</v>
+        <v>561040</v>
       </c>
       <c r="O49" s="7" t="s">
         <v>355</v>
@@ -6663,7 +6762,7 @@
         <v>1194</v>
       </c>
       <c r="N52" s="7">
-        <v>1226032</v>
+        <v>1226031</v>
       </c>
       <c r="O52" s="7" t="s">
         <v>70</v>
@@ -7419,7 +7518,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DD20577-9141-442B-ACC6-9258AC26F9D6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C44073F2-E683-43A7-BA62-C9F73D40EC8F}">
   <dimension ref="A1:Q67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7537,43 +7636,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="D4" s="7">
+        <v>5145</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>477</v>
+        <v>17</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>477</v>
+        <v>178</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>477</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>6</v>
+      </c>
+      <c r="I4" s="7">
+        <v>6342</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>477</v>
+        <v>423</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>477</v>
+        <v>188</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>11</v>
+      </c>
+      <c r="N4" s="7">
+        <v>11487</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>477</v>
+        <v>228</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7582,43 +7687,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>24</v>
+      </c>
+      <c r="D5" s="7">
+        <v>26140</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>11</v>
+      </c>
+      <c r="I5" s="7">
+        <v>11908</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>477</v>
+        <v>378</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>477</v>
+        <v>142</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>35</v>
+      </c>
+      <c r="N5" s="7">
+        <v>38048</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>477</v>
+        <v>485</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>477</v>
+        <v>487</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7627,43 +7738,49 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>57</v>
+      </c>
+      <c r="D6" s="7">
+        <v>60426</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>477</v>
+        <v>488</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>477</v>
+        <v>489</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>477</v>
+        <v>490</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>36</v>
+      </c>
+      <c r="I6" s="7">
+        <v>41362</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>477</v>
+        <v>491</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>477</v>
+        <v>492</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>477</v>
+        <v>493</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>93</v>
+      </c>
+      <c r="N6" s="7">
+        <v>101788</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>477</v>
+        <v>494</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>477</v>
+        <v>495</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>477</v>
+        <v>496</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7672,43 +7789,49 @@
         <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7"/>
+        <v>87</v>
+      </c>
+      <c r="D7" s="7">
+        <v>92646</v>
+      </c>
       <c r="E7" s="7" t="s">
-        <v>477</v>
+        <v>497</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>477</v>
+        <v>498</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>477</v>
+        <v>499</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7"/>
+        <v>51</v>
+      </c>
+      <c r="I7" s="7">
+        <v>57278</v>
+      </c>
       <c r="J7" s="7" t="s">
-        <v>477</v>
+        <v>500</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>477</v>
+        <v>501</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>477</v>
+        <v>502</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7"/>
+        <v>138</v>
+      </c>
+      <c r="N7" s="7">
+        <v>149924</v>
+      </c>
       <c r="O7" s="7" t="s">
-        <v>477</v>
+        <v>503</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>477</v>
+        <v>504</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>477</v>
+        <v>505</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7717,43 +7840,49 @@
         <v>50</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
-      </c>
-      <c r="D8" s="7"/>
+        <v>56</v>
+      </c>
+      <c r="D8" s="7">
+        <v>57936</v>
+      </c>
       <c r="E8" s="7" t="s">
-        <v>477</v>
+        <v>506</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>477</v>
+        <v>507</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>477</v>
+        <v>508</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7"/>
+        <v>69</v>
+      </c>
+      <c r="I8" s="7">
+        <v>75690</v>
+      </c>
       <c r="J8" s="7" t="s">
-        <v>477</v>
+        <v>509</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>477</v>
+        <v>510</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>477</v>
+        <v>511</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
-      </c>
-      <c r="N8" s="7"/>
+        <v>125</v>
+      </c>
+      <c r="N8" s="7">
+        <v>133626</v>
+      </c>
       <c r="O8" s="7" t="s">
-        <v>477</v>
+        <v>512</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>477</v>
+        <v>513</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>477</v>
+        <v>514</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7762,43 +7891,49 @@
         <v>60</v>
       </c>
       <c r="C9" s="7">
-        <v>0</v>
-      </c>
-      <c r="D9" s="7"/>
+        <v>47</v>
+      </c>
+      <c r="D9" s="7">
+        <v>46631</v>
+      </c>
       <c r="E9" s="7" t="s">
-        <v>477</v>
+        <v>515</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>477</v>
+        <v>516</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>477</v>
+        <v>493</v>
       </c>
       <c r="H9" s="7">
-        <v>0</v>
-      </c>
-      <c r="I9" s="7"/>
+        <v>71</v>
+      </c>
+      <c r="I9" s="7">
+        <v>81461</v>
+      </c>
       <c r="J9" s="7" t="s">
-        <v>477</v>
+        <v>415</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>477</v>
+        <v>517</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>477</v>
+        <v>518</v>
       </c>
       <c r="M9" s="7">
-        <v>0</v>
-      </c>
-      <c r="N9" s="7"/>
+        <v>118</v>
+      </c>
+      <c r="N9" s="7">
+        <v>128092</v>
+      </c>
       <c r="O9" s="7" t="s">
-        <v>477</v>
+        <v>519</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>477</v>
+        <v>520</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>477</v>
+        <v>521</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7807,43 +7942,49 @@
         <v>3</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
-      </c>
-      <c r="D10" s="7"/>
+        <v>276</v>
+      </c>
+      <c r="D10" s="7">
+        <v>288923</v>
+      </c>
       <c r="E10" s="7" t="s">
-        <v>477</v>
+        <v>70</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>477</v>
+        <v>70</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>477</v>
+        <v>70</v>
       </c>
       <c r="H10" s="7">
-        <v>0</v>
-      </c>
-      <c r="I10" s="7"/>
+        <v>244</v>
+      </c>
+      <c r="I10" s="7">
+        <v>274041</v>
+      </c>
       <c r="J10" s="7" t="s">
-        <v>477</v>
+        <v>70</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>477</v>
+        <v>70</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>477</v>
+        <v>70</v>
       </c>
       <c r="M10" s="7">
-        <v>0</v>
-      </c>
-      <c r="N10" s="7"/>
+        <v>520</v>
+      </c>
+      <c r="N10" s="7">
+        <v>562964</v>
+      </c>
       <c r="O10" s="7" t="s">
-        <v>477</v>
+        <v>70</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>477</v>
+        <v>70</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>477</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7863,7 +8004,7 @@
         <v>383</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>478</v>
+        <v>522</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>247</v>
@@ -7881,7 +8022,7 @@
         <v>276</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>479</v>
+        <v>523</v>
       </c>
       <c r="M11" s="7">
         <v>24</v>
@@ -7890,13 +8031,13 @@
         <v>24097</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>480</v>
+        <v>524</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>77</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>481</v>
+        <v>525</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7911,13 +8052,13 @@
         <v>40503</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>482</v>
+        <v>526</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>483</v>
+        <v>527</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>484</v>
+        <v>528</v>
       </c>
       <c r="H12" s="7">
         <v>12</v>
@@ -7926,10 +8067,10 @@
         <v>12114</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>485</v>
+        <v>529</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>486</v>
+        <v>530</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>26</v>
@@ -7941,13 +8082,13 @@
         <v>52618</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>487</v>
+        <v>531</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>383</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>488</v>
+        <v>532</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7962,13 +8103,13 @@
         <v>48757</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>489</v>
+        <v>533</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>34</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>490</v>
+        <v>534</v>
       </c>
       <c r="H13" s="7">
         <v>30</v>
@@ -7980,10 +8121,10 @@
         <v>241</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>491</v>
+        <v>535</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>492</v>
+        <v>536</v>
       </c>
       <c r="M13" s="7">
         <v>72</v>
@@ -7995,10 +8136,10 @@
         <v>431</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>493</v>
+        <v>537</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>494</v>
+        <v>538</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -8013,13 +8154,13 @@
         <v>60241</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>495</v>
+        <v>539</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>496</v>
+        <v>540</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>497</v>
+        <v>541</v>
       </c>
       <c r="H14" s="7">
         <v>71</v>
@@ -8028,13 +8169,13 @@
         <v>76299</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>498</v>
+        <v>542</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>499</v>
+        <v>543</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>500</v>
+        <v>544</v>
       </c>
       <c r="M14" s="7">
         <v>129</v>
@@ -8043,13 +8184,13 @@
         <v>136540</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>501</v>
+        <v>545</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>502</v>
+        <v>546</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>503</v>
+        <v>547</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8067,10 +8208,10 @@
         <v>173</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>504</v>
+        <v>548</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>505</v>
+        <v>549</v>
       </c>
       <c r="H15" s="7">
         <v>75</v>
@@ -8079,13 +8220,13 @@
         <v>81190</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>506</v>
+        <v>550</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>507</v>
+        <v>551</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>508</v>
+        <v>552</v>
       </c>
       <c r="M15" s="7">
         <v>127</v>
@@ -8094,10 +8235,10 @@
         <v>134665</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>509</v>
+        <v>553</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>510</v>
+        <v>554</v>
       </c>
       <c r="Q15" s="7" t="s">
         <v>371</v>
@@ -8115,13 +8256,13 @@
         <v>275101</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>511</v>
+        <v>555</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>512</v>
+        <v>556</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>513</v>
+        <v>557</v>
       </c>
       <c r="H16" s="7">
         <v>277</v>
@@ -8130,13 +8271,13 @@
         <v>307822</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>514</v>
+        <v>558</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>515</v>
+        <v>559</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>516</v>
+        <v>560</v>
       </c>
       <c r="M16" s="7">
         <v>531</v>
@@ -8145,13 +8286,13 @@
         <v>582922</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>517</v>
+        <v>561</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>518</v>
+        <v>562</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>519</v>
+        <v>563</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8225,7 +8366,7 @@
         <v>426</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>520</v>
+        <v>564</v>
       </c>
       <c r="H18" s="7">
         <v>5</v>
@@ -8234,13 +8375,13 @@
         <v>5125</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>521</v>
+        <v>565</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>75</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>522</v>
+        <v>566</v>
       </c>
       <c r="M18" s="7">
         <v>11</v>
@@ -8249,13 +8390,13 @@
         <v>11410</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>523</v>
+        <v>567</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>524</v>
+        <v>568</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>525</v>
+        <v>569</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8276,7 +8417,7 @@
         <v>242</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>526</v>
+        <v>570</v>
       </c>
       <c r="H19" s="7">
         <v>46</v>
@@ -8285,13 +8426,13 @@
         <v>48693</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>527</v>
+        <v>571</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>528</v>
+        <v>572</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>529</v>
+        <v>573</v>
       </c>
       <c r="M19" s="7">
         <v>107</v>
@@ -8300,13 +8441,13 @@
         <v>111407</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>530</v>
+        <v>574</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>531</v>
+        <v>575</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>532</v>
+        <v>576</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8321,13 +8462,13 @@
         <v>59312</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>533</v>
+        <v>577</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>534</v>
+        <v>578</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>535</v>
+        <v>579</v>
       </c>
       <c r="H20" s="7">
         <v>51</v>
@@ -8339,10 +8480,10 @@
         <v>373</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>536</v>
+        <v>580</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>537</v>
+        <v>581</v>
       </c>
       <c r="M20" s="7">
         <v>109</v>
@@ -8351,13 +8492,13 @@
         <v>117998</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>538</v>
+        <v>582</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>498</v>
+        <v>542</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>539</v>
+        <v>583</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8372,13 +8513,13 @@
         <v>92248</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>540</v>
+        <v>584</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>541</v>
+        <v>585</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>542</v>
+        <v>586</v>
       </c>
       <c r="H21" s="7">
         <v>67</v>
@@ -8387,13 +8528,13 @@
         <v>69408</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>543</v>
+        <v>587</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>544</v>
+        <v>588</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>545</v>
+        <v>589</v>
       </c>
       <c r="M21" s="7">
         <v>161</v>
@@ -8402,13 +8543,13 @@
         <v>161656</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>546</v>
+        <v>590</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>547</v>
+        <v>591</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>548</v>
+        <v>592</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8423,13 +8564,13 @@
         <v>63848</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>549</v>
+        <v>593</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>550</v>
+        <v>594</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>551</v>
+        <v>595</v>
       </c>
       <c r="H22" s="7">
         <v>86</v>
@@ -8438,13 +8579,13 @@
         <v>91954</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>552</v>
+        <v>596</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>470</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>553</v>
+        <v>597</v>
       </c>
       <c r="M22" s="7">
         <v>150</v>
@@ -8453,13 +8594,13 @@
         <v>155802</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>554</v>
+        <v>598</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>555</v>
+        <v>599</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>556</v>
+        <v>600</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8477,10 +8618,10 @@
         <v>234</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>557</v>
+        <v>601</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>558</v>
+        <v>602</v>
       </c>
       <c r="H23" s="7">
         <v>61</v>
@@ -8489,13 +8630,13 @@
         <v>66059</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>559</v>
+        <v>603</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>560</v>
+        <v>604</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>561</v>
+        <v>605</v>
       </c>
       <c r="M23" s="7">
         <v>95</v>
@@ -8504,13 +8645,13 @@
         <v>103713</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>562</v>
+        <v>606</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>563</v>
+        <v>607</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>564</v>
+        <v>608</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8572,49 +8713,49 @@
         <v>10</v>
       </c>
       <c r="C25" s="7">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D25" s="7">
-        <v>105621</v>
+        <v>100476</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>565</v>
+        <v>609</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>566</v>
+        <v>610</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>567</v>
+        <v>419</v>
       </c>
       <c r="H25" s="7">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="I25" s="7">
-        <v>77162</v>
+        <v>70820</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>568</v>
+        <v>611</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>569</v>
+        <v>612</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>570</v>
+        <v>613</v>
       </c>
       <c r="M25" s="7">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="N25" s="7">
-        <v>182783</v>
+        <v>171296</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>571</v>
+        <v>614</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>572</v>
+        <v>615</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>573</v>
+        <v>616</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8623,49 +8764,49 @@
         <v>20</v>
       </c>
       <c r="C26" s="7">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="D26" s="7">
-        <v>105466</v>
+        <v>79326</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>574</v>
+        <v>617</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>575</v>
+        <v>618</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>576</v>
+        <v>619</v>
       </c>
       <c r="H26" s="7">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="I26" s="7">
-        <v>63952</v>
+        <v>52044</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>577</v>
+        <v>542</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>482</v>
+        <v>620</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>578</v>
+        <v>621</v>
       </c>
       <c r="M26" s="7">
-        <v>157</v>
+        <v>122</v>
       </c>
       <c r="N26" s="7">
-        <v>169418</v>
+        <v>131369</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>579</v>
+        <v>622</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>580</v>
+        <v>547</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>581</v>
+        <v>623</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8674,49 +8815,49 @@
         <v>30</v>
       </c>
       <c r="C27" s="7">
-        <v>97</v>
+        <v>40</v>
       </c>
       <c r="D27" s="7">
-        <v>103861</v>
+        <v>43434</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>582</v>
+        <v>136</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>583</v>
+        <v>624</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>584</v>
+        <v>625</v>
       </c>
       <c r="H27" s="7">
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="I27" s="7">
-        <v>95837</v>
+        <v>54476</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>585</v>
+        <v>626</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>586</v>
+        <v>627</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>587</v>
+        <v>628</v>
       </c>
       <c r="M27" s="7">
-        <v>181</v>
+        <v>88</v>
       </c>
       <c r="N27" s="7">
-        <v>199698</v>
+        <v>97910</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>588</v>
+        <v>629</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>589</v>
+        <v>630</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>590</v>
+        <v>631</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -8725,49 +8866,49 @@
         <v>40</v>
       </c>
       <c r="C28" s="7">
-        <v>146</v>
+        <v>59</v>
       </c>
       <c r="D28" s="7">
-        <v>154662</v>
+        <v>62016</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>591</v>
+        <v>632</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>592</v>
+        <v>633</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>265</v>
+        <v>634</v>
       </c>
       <c r="H28" s="7">
-        <v>119</v>
+        <v>68</v>
       </c>
       <c r="I28" s="7">
-        <v>128898</v>
+        <v>71620</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>593</v>
+        <v>635</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>594</v>
+        <v>636</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>595</v>
+        <v>637</v>
       </c>
       <c r="M28" s="7">
-        <v>265</v>
+        <v>127</v>
       </c>
       <c r="N28" s="7">
-        <v>283561</v>
+        <v>133637</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>269</v>
+        <v>638</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>405</v>
+        <v>639</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>596</v>
+        <v>640</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8776,49 +8917,49 @@
         <v>50</v>
       </c>
       <c r="C29" s="7">
-        <v>93</v>
+        <v>37</v>
       </c>
       <c r="D29" s="7">
-        <v>96243</v>
+        <v>38307</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>597</v>
+        <v>641</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>321</v>
+        <v>642</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>81</v>
+        <v>643</v>
       </c>
       <c r="H29" s="7">
-        <v>120</v>
+        <v>51</v>
       </c>
       <c r="I29" s="7">
-        <v>127192</v>
+        <v>51502</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>598</v>
+        <v>644</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>599</v>
+        <v>23</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>600</v>
+        <v>645</v>
       </c>
       <c r="M29" s="7">
-        <v>213</v>
+        <v>88</v>
       </c>
       <c r="N29" s="7">
-        <v>223434</v>
+        <v>89809</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>601</v>
+        <v>646</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>439</v>
+        <v>647</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>602</v>
+        <v>648</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8827,49 +8968,49 @@
         <v>60</v>
       </c>
       <c r="C30" s="7">
+        <v>26</v>
+      </c>
+      <c r="D30" s="7">
+        <v>29592</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>649</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>650</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="H30" s="7">
+        <v>47</v>
+      </c>
+      <c r="I30" s="7">
+        <v>49444</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>651</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>652</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>653</v>
+      </c>
+      <c r="M30" s="7">
         <v>73</v>
       </c>
-      <c r="D30" s="7">
-        <v>76223</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>603</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>604</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>605</v>
-      </c>
-      <c r="H30" s="7">
-        <v>118</v>
-      </c>
-      <c r="I30" s="7">
-        <v>130905</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>606</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>607</v>
-      </c>
-      <c r="M30" s="7">
-        <v>191</v>
-      </c>
       <c r="N30" s="7">
-        <v>207128</v>
+        <v>79036</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>608</v>
+        <v>492</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>609</v>
+        <v>654</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>610</v>
+        <v>655</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8878,10 +9019,10 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
-        <v>601</v>
+        <v>325</v>
       </c>
       <c r="D31" s="7">
-        <v>642075</v>
+        <v>353151</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>70</v>
@@ -8893,10 +9034,10 @@
         <v>70</v>
       </c>
       <c r="H31" s="7">
-        <v>578</v>
+        <v>334</v>
       </c>
       <c r="I31" s="7">
-        <v>623946</v>
+        <v>349905</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>70</v>
@@ -8908,10 +9049,10 @@
         <v>70</v>
       </c>
       <c r="M31" s="7">
-        <v>1179</v>
+        <v>659</v>
       </c>
       <c r="N31" s="7">
-        <v>1266021</v>
+        <v>703056</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>70</v>
@@ -8937,13 +9078,13 @@
         <v>5471</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>611</v>
+        <v>656</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>612</v>
+        <v>657</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>613</v>
+        <v>658</v>
       </c>
       <c r="H32" s="7">
         <v>1</v>
@@ -8952,13 +9093,13 @@
         <v>893</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>614</v>
+        <v>659</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>179</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>615</v>
+        <v>660</v>
       </c>
       <c r="M32" s="7">
         <v>6</v>
@@ -8967,13 +9108,13 @@
         <v>6363</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>616</v>
+        <v>661</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>617</v>
+        <v>662</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>618</v>
+        <v>663</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8988,13 +9129,13 @@
         <v>14965</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>619</v>
+        <v>664</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>620</v>
+        <v>665</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>621</v>
+        <v>666</v>
       </c>
       <c r="H33" s="7">
         <v>9</v>
@@ -9003,13 +9144,13 @@
         <v>9780</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>622</v>
+        <v>667</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>623</v>
+        <v>668</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>624</v>
+        <v>669</v>
       </c>
       <c r="M33" s="7">
         <v>23</v>
@@ -9021,10 +9162,10 @@
         <v>135</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>625</v>
+        <v>670</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>626</v>
+        <v>671</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -9039,13 +9180,13 @@
         <v>37554</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>627</v>
+        <v>672</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>628</v>
+        <v>673</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>629</v>
+        <v>674</v>
       </c>
       <c r="H34" s="7">
         <v>18</v>
@@ -9054,13 +9195,13 @@
         <v>17818</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>630</v>
+        <v>675</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>631</v>
+        <v>676</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>632</v>
+        <v>677</v>
       </c>
       <c r="M34" s="7">
         <v>51</v>
@@ -9069,13 +9210,13 @@
         <v>55372</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>633</v>
+        <v>678</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>634</v>
+        <v>679</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>635</v>
+        <v>680</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -9090,13 +9231,13 @@
         <v>92294</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>636</v>
+        <v>681</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>637</v>
+        <v>682</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>638</v>
+        <v>683</v>
       </c>
       <c r="H35" s="7">
         <v>60</v>
@@ -9105,13 +9246,13 @@
         <v>62458</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>639</v>
+        <v>684</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>640</v>
+        <v>685</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>641</v>
+        <v>686</v>
       </c>
       <c r="M35" s="7">
         <v>146</v>
@@ -9120,13 +9261,13 @@
         <v>154751</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>642</v>
+        <v>687</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>643</v>
+        <v>688</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>644</v>
+        <v>689</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -9141,13 +9282,13 @@
         <v>38123</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>645</v>
+        <v>690</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>646</v>
+        <v>691</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>647</v>
+        <v>692</v>
       </c>
       <c r="H36" s="7">
         <v>83</v>
@@ -9156,13 +9297,13 @@
         <v>85665</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>648</v>
+        <v>693</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>54</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>649</v>
+        <v>694</v>
       </c>
       <c r="M36" s="7">
         <v>119</v>
@@ -9171,13 +9312,13 @@
         <v>123788</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>650</v>
+        <v>695</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>651</v>
+        <v>696</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>652</v>
+        <v>697</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -9192,13 +9333,13 @@
         <v>19749</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>653</v>
+        <v>698</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>654</v>
+        <v>699</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>655</v>
+        <v>700</v>
       </c>
       <c r="H37" s="7">
         <v>37</v>
@@ -9207,13 +9348,13 @@
         <v>38470</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>656</v>
+        <v>701</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>657</v>
+        <v>702</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>658</v>
+        <v>703</v>
       </c>
       <c r="M37" s="7">
         <v>55</v>
@@ -9222,13 +9363,13 @@
         <v>58218</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>659</v>
+        <v>704</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>660</v>
+        <v>705</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>661</v>
+        <v>706</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -9296,10 +9437,10 @@
         <v>8303</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>662</v>
+        <v>707</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>663</v>
+        <v>708</v>
       </c>
       <c r="G39" s="7" t="s">
         <v>247</v>
@@ -9326,7 +9467,7 @@
         <v>10351</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>664</v>
+        <v>709</v>
       </c>
       <c r="P39" s="7" t="s">
         <v>138</v>
@@ -9347,13 +9488,13 @@
         <v>37703</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>659</v>
+        <v>704</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>665</v>
+        <v>710</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>666</v>
+        <v>711</v>
       </c>
       <c r="H40" s="7">
         <v>15</v>
@@ -9362,10 +9503,10 @@
         <v>17326</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>667</v>
+        <v>712</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>668</v>
+        <v>713</v>
       </c>
       <c r="L40" s="7" t="s">
         <v>38</v>
@@ -9380,7 +9521,7 @@
         <v>218</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>669</v>
+        <v>714</v>
       </c>
       <c r="Q40" s="7" t="s">
         <v>316</v>
@@ -9398,13 +9539,13 @@
         <v>66031</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>670</v>
+        <v>715</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>671</v>
+        <v>716</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>672</v>
+        <v>717</v>
       </c>
       <c r="H41" s="7">
         <v>34</v>
@@ -9413,13 +9554,13 @@
         <v>36021</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>673</v>
+        <v>718</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>674</v>
+        <v>719</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>675</v>
+        <v>720</v>
       </c>
       <c r="M41" s="7">
         <v>96</v>
@@ -9428,10 +9569,10 @@
         <v>102052</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>676</v>
+        <v>721</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>677</v>
+        <v>722</v>
       </c>
       <c r="Q41" s="7" t="s">
         <v>114</v>
@@ -9449,13 +9590,13 @@
         <v>66566</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>678</v>
+        <v>723</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>679</v>
+        <v>724</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>680</v>
+        <v>725</v>
       </c>
       <c r="H42" s="7">
         <v>65</v>
@@ -9464,13 +9605,13 @@
         <v>65073</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>681</v>
+        <v>726</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>682</v>
+        <v>727</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>683</v>
+        <v>728</v>
       </c>
       <c r="M42" s="7">
         <v>127</v>
@@ -9479,13 +9620,13 @@
         <v>131639</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>684</v>
+        <v>729</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>685</v>
+        <v>730</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>686</v>
+        <v>731</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -9500,13 +9641,13 @@
         <v>64655</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>687</v>
+        <v>732</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>688</v>
+        <v>733</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>689</v>
+        <v>734</v>
       </c>
       <c r="H43" s="7">
         <v>79</v>
@@ -9515,13 +9656,13 @@
         <v>80552</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>690</v>
+        <v>735</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>691</v>
+        <v>736</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>692</v>
+        <v>737</v>
       </c>
       <c r="M43" s="7">
         <v>141</v>
@@ -9530,13 +9671,13 @@
         <v>145207</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>693</v>
+        <v>738</v>
       </c>
       <c r="P43" s="7" t="s">
         <v>269</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>694</v>
+        <v>739</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -9551,13 +9692,13 @@
         <v>30723</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>695</v>
+        <v>740</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>696</v>
+        <v>741</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>697</v>
+        <v>742</v>
       </c>
       <c r="H44" s="7">
         <v>71</v>
@@ -9566,13 +9707,13 @@
         <v>75098</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>698</v>
+        <v>743</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>699</v>
+        <v>744</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>700</v>
+        <v>745</v>
       </c>
       <c r="M44" s="7">
         <v>102</v>
@@ -9581,13 +9722,13 @@
         <v>105821</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>701</v>
+        <v>746</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>702</v>
+        <v>747</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>703</v>
+        <v>748</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -9655,13 +9796,13 @@
         <v>20014</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>704</v>
+        <v>749</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>705</v>
+        <v>750</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>706</v>
+        <v>751</v>
       </c>
       <c r="H46" s="7">
         <v>9</v>
@@ -9670,10 +9811,10 @@
         <v>9411</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>707</v>
+        <v>752</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>708</v>
+        <v>753</v>
       </c>
       <c r="L46" s="7" t="s">
         <v>72</v>
@@ -9685,13 +9826,13 @@
         <v>29425</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>709</v>
+        <v>754</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>521</v>
+        <v>565</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>710</v>
+        <v>755</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -9706,13 +9847,13 @@
         <v>130649</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>711</v>
+        <v>756</v>
       </c>
       <c r="F47" s="7" t="s">
         <v>122</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>712</v>
+        <v>757</v>
       </c>
       <c r="H47" s="7">
         <v>102</v>
@@ -9721,13 +9862,13 @@
         <v>111427</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>713</v>
+        <v>758</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>714</v>
+        <v>759</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>715</v>
+        <v>760</v>
       </c>
       <c r="M47" s="7">
         <v>222</v>
@@ -9739,10 +9880,10 @@
         <v>322</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>716</v>
+        <v>761</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>717</v>
+        <v>762</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -9757,13 +9898,13 @@
         <v>139012</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>718</v>
+        <v>763</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>719</v>
+        <v>764</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>720</v>
+        <v>765</v>
       </c>
       <c r="H48" s="7">
         <v>73</v>
@@ -9772,13 +9913,13 @@
         <v>78735</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>721</v>
+        <v>620</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>496</v>
+        <v>540</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>722</v>
+        <v>766</v>
       </c>
       <c r="M48" s="7">
         <v>206</v>
@@ -9787,13 +9928,13 @@
         <v>217747</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>723</v>
+        <v>639</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>724</v>
+        <v>767</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>725</v>
+        <v>768</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -9808,13 +9949,13 @@
         <v>196254</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>726</v>
+        <v>769</v>
       </c>
       <c r="F49" s="7" t="s">
         <v>251</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>542</v>
+        <v>586</v>
       </c>
       <c r="H49" s="7">
         <v>188</v>
@@ -9823,13 +9964,13 @@
         <v>204676</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>672</v>
+        <v>717</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>727</v>
+        <v>770</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>728</v>
+        <v>771</v>
       </c>
       <c r="M49" s="7">
         <v>371</v>
@@ -9841,10 +9982,10 @@
         <v>263</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>729</v>
+        <v>772</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>730</v>
+        <v>773</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -9859,13 +10000,13 @@
         <v>119337</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>731</v>
+        <v>774</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>697</v>
+        <v>742</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>732</v>
+        <v>775</v>
       </c>
       <c r="H50" s="7">
         <v>154</v>
@@ -9874,13 +10015,13 @@
         <v>169055</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>733</v>
+        <v>776</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>734</v>
+        <v>777</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>735</v>
+        <v>778</v>
       </c>
       <c r="M50" s="7">
         <v>264</v>
@@ -9889,10 +10030,10 @@
         <v>288393</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>736</v>
+        <v>779</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>737</v>
+        <v>780</v>
       </c>
       <c r="Q50" s="7" t="s">
         <v>469</v>
@@ -9910,13 +10051,13 @@
         <v>53512</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>738</v>
+        <v>781</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>739</v>
+        <v>782</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>740</v>
+        <v>641</v>
       </c>
       <c r="H51" s="7">
         <v>105</v>
@@ -9925,13 +10066,13 @@
         <v>114555</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>741</v>
+        <v>783</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>742</v>
+        <v>784</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>743</v>
+        <v>785</v>
       </c>
       <c r="M51" s="7">
         <v>154</v>
@@ -9940,13 +10081,13 @@
         <v>168067</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>744</v>
+        <v>786</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>745</v>
+        <v>652</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>746</v>
+        <v>787</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -10014,13 +10155,13 @@
         <v>8425</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>747</v>
+        <v>788</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>748</v>
+        <v>789</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>749</v>
+        <v>790</v>
       </c>
       <c r="H53" s="7">
         <v>5</v>
@@ -10029,13 +10170,13 @@
         <v>5422</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>750</v>
+        <v>791</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>751</v>
+        <v>792</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>752</v>
+        <v>793</v>
       </c>
       <c r="M53" s="7">
         <v>12</v>
@@ -10044,13 +10185,13 @@
         <v>13847</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>524</v>
+        <v>568</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>753</v>
+        <v>794</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>616</v>
+        <v>661</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -10065,7 +10206,7 @@
         <v>18865</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>754</v>
+        <v>795</v>
       </c>
       <c r="F54" s="7" t="s">
         <v>24</v>
@@ -10080,13 +10221,13 @@
         <v>19771</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>754</v>
+        <v>795</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>755</v>
+        <v>796</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>756</v>
+        <v>797</v>
       </c>
       <c r="M54" s="7">
         <v>33</v>
@@ -10095,10 +10236,10 @@
         <v>38636</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>754</v>
+        <v>795</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>523</v>
+        <v>567</v>
       </c>
       <c r="Q54" s="7" t="s">
         <v>277</v>
@@ -10116,13 +10257,13 @@
         <v>81356</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>757</v>
+        <v>798</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>758</v>
+        <v>799</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>759</v>
+        <v>800</v>
       </c>
       <c r="H55" s="7">
         <v>51</v>
@@ -10134,10 +10275,10 @@
         <v>21</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>760</v>
+        <v>801</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>761</v>
+        <v>802</v>
       </c>
       <c r="M55" s="7">
         <v>126</v>
@@ -10146,10 +10287,10 @@
         <v>139646</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>762</v>
+        <v>803</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>763</v>
+        <v>804</v>
       </c>
       <c r="Q55" s="7" t="s">
         <v>88</v>
@@ -10167,13 +10308,13 @@
         <v>260773</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>764</v>
+        <v>805</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>765</v>
+        <v>806</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>766</v>
+        <v>807</v>
       </c>
       <c r="H56" s="7">
         <v>204</v>
@@ -10182,13 +10323,13 @@
         <v>219076</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>767</v>
+        <v>808</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>768</v>
+        <v>809</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>769</v>
+        <v>810</v>
       </c>
       <c r="M56" s="7">
         <v>445</v>
@@ -10197,10 +10338,10 @@
         <v>479849</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>770</v>
+        <v>811</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>771</v>
+        <v>812</v>
       </c>
       <c r="Q56" s="7" t="s">
         <v>452</v>
@@ -10218,13 +10359,13 @@
         <v>256473</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>772</v>
+        <v>813</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>773</v>
+        <v>814</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>774</v>
+        <v>815</v>
       </c>
       <c r="H57" s="7">
         <v>281</v>
@@ -10233,13 +10374,13 @@
         <v>306561</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>775</v>
+        <v>816</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>776</v>
+        <v>817</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>777</v>
+        <v>818</v>
       </c>
       <c r="M57" s="7">
         <v>515</v>
@@ -10248,13 +10389,13 @@
         <v>563034</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>778</v>
+        <v>819</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>779</v>
+        <v>820</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>780</v>
+        <v>821</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
@@ -10269,13 +10410,13 @@
         <v>150171</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>781</v>
+        <v>822</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>782</v>
+        <v>823</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>783</v>
+        <v>824</v>
       </c>
       <c r="H58" s="7">
         <v>189</v>
@@ -10287,10 +10428,10 @@
         <v>471</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>784</v>
+        <v>825</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>548</v>
+        <v>592</v>
       </c>
       <c r="M58" s="7">
         <v>330</v>
@@ -10299,13 +10440,13 @@
         <v>354262</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>785</v>
+        <v>826</v>
       </c>
       <c r="P58" s="7" t="s">
-        <v>786</v>
+        <v>827</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>787</v>
+        <v>828</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -10373,13 +10514,13 @@
         <v>173281</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>788</v>
+        <v>829</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>789</v>
+        <v>830</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>790</v>
+        <v>831</v>
       </c>
       <c r="H60" s="7">
         <v>102</v>
@@ -10388,13 +10529,13 @@
         <v>104994</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>662</v>
+        <v>707</v>
       </c>
       <c r="K60" s="7" t="s">
-        <v>791</v>
+        <v>832</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>792</v>
+        <v>833</v>
       </c>
       <c r="M60" s="7">
         <v>263</v>
@@ -10403,13 +10544,13 @@
         <v>278276</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>793</v>
+        <v>834</v>
       </c>
       <c r="P60" s="7" t="s">
-        <v>794</v>
+        <v>835</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>795</v>
+        <v>836</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -10424,13 +10565,13 @@
         <v>410865</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>796</v>
+        <v>837</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>797</v>
+        <v>838</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>798</v>
+        <v>839</v>
       </c>
       <c r="H61" s="7">
         <v>263</v>
@@ -10439,13 +10580,13 @@
         <v>283063</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>799</v>
+        <v>840</v>
       </c>
       <c r="K61" s="7" t="s">
-        <v>619</v>
+        <v>664</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>800</v>
+        <v>841</v>
       </c>
       <c r="M61" s="7">
         <v>645</v>
@@ -10454,13 +10595,13 @@
         <v>693928</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>801</v>
+        <v>842</v>
       </c>
       <c r="P61" s="7" t="s">
-        <v>802</v>
+        <v>843</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>803</v>
+        <v>844</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -10475,13 +10616,13 @@
         <v>535885</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>716</v>
+        <v>761</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>804</v>
+        <v>845</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>594</v>
+        <v>846</v>
       </c>
       <c r="H62" s="7">
         <v>341</v>
@@ -10490,13 +10631,13 @@
         <v>376210</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>805</v>
+        <v>847</v>
       </c>
       <c r="K62" s="7" t="s">
-        <v>806</v>
+        <v>848</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>807</v>
+        <v>849</v>
       </c>
       <c r="M62" s="7">
         <v>841</v>
@@ -10505,13 +10646,13 @@
         <v>912094</v>
       </c>
       <c r="O62" s="7" t="s">
-        <v>808</v>
+        <v>850</v>
       </c>
       <c r="P62" s="7" t="s">
-        <v>809</v>
+        <v>851</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>810</v>
+        <v>852</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -10526,10 +10667,10 @@
         <v>923037</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>811</v>
+        <v>853</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>812</v>
+        <v>854</v>
       </c>
       <c r="G63" s="7" t="s">
         <v>305</v>
@@ -10541,13 +10682,13 @@
         <v>825888</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>813</v>
+        <v>855</v>
       </c>
       <c r="K63" s="7" t="s">
-        <v>814</v>
+        <v>856</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>815</v>
+        <v>857</v>
       </c>
       <c r="M63" s="7">
         <v>1644</v>
@@ -10556,13 +10697,13 @@
         <v>1748925</v>
       </c>
       <c r="O63" s="7" t="s">
-        <v>816</v>
+        <v>858</v>
       </c>
       <c r="P63" s="7" t="s">
         <v>272</v>
       </c>
       <c r="Q63" s="7" t="s">
-        <v>817</v>
+        <v>859</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
@@ -10577,13 +10718,13 @@
         <v>692153</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>818</v>
+        <v>860</v>
       </c>
       <c r="F64" s="7" t="s">
         <v>473</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>819</v>
+        <v>861</v>
       </c>
       <c r="H64" s="7">
         <v>878</v>
@@ -10592,13 +10733,13 @@
         <v>942169</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>820</v>
+        <v>862</v>
       </c>
       <c r="K64" s="7" t="s">
-        <v>821</v>
+        <v>863</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>822</v>
+        <v>864</v>
       </c>
       <c r="M64" s="7">
         <v>1529</v>
@@ -10607,13 +10748,13 @@
         <v>1634322</v>
       </c>
       <c r="O64" s="7" t="s">
-        <v>823</v>
+        <v>865</v>
       </c>
       <c r="P64" s="7" t="s">
-        <v>824</v>
+        <v>866</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>825</v>
+        <v>867</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
@@ -10628,10 +10769,10 @@
         <v>643131</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>826</v>
+        <v>868</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>827</v>
+        <v>869</v>
       </c>
       <c r="G65" s="7" t="s">
         <v>249</v>
@@ -10643,13 +10784,13 @@
         <v>937000</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>828</v>
+        <v>870</v>
       </c>
       <c r="K65" s="7" t="s">
-        <v>829</v>
+        <v>871</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>830</v>
+        <v>872</v>
       </c>
       <c r="M65" s="7">
         <v>1458</v>
@@ -10658,10 +10799,10 @@
         <v>1580131</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>831</v>
+        <v>873</v>
       </c>
       <c r="P65" s="7" t="s">
-        <v>832</v>
+        <v>874</v>
       </c>
       <c r="Q65" s="7" t="s">
         <v>407</v>
@@ -10744,7 +10885,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3890581-E81C-4FD0-BD33-E55955E7A761}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B50A683-E6AD-4FC9-9F4F-A3C5E84B51A9}">
   <dimension ref="A1:Q67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10761,7 +10902,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>833</v>
+        <v>875</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -10874,7 +11015,7 @@
         <v>286</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>834</v>
+        <v>876</v>
       </c>
       <c r="H4" s="7">
         <v>9</v>
@@ -10883,13 +11024,13 @@
         <v>9481</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>835</v>
+        <v>877</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>836</v>
+        <v>878</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>837</v>
+        <v>879</v>
       </c>
       <c r="M4" s="7">
         <v>24</v>
@@ -10901,10 +11042,10 @@
         <v>326</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>662</v>
+        <v>707</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>838</v>
+        <v>880</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -10919,13 +11060,13 @@
         <v>21731</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>839</v>
+        <v>881</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>840</v>
+        <v>882</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>841</v>
+        <v>883</v>
       </c>
       <c r="H5" s="7">
         <v>19</v>
@@ -10934,13 +11075,13 @@
         <v>18863</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>842</v>
+        <v>884</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>843</v>
+        <v>885</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>844</v>
+        <v>886</v>
       </c>
       <c r="M5" s="7">
         <v>39</v>
@@ -10949,13 +11090,13 @@
         <v>40594</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>845</v>
+        <v>887</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>846</v>
+        <v>888</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>847</v>
+        <v>889</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -10976,7 +11117,7 @@
         <v>162</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>848</v>
+        <v>890</v>
       </c>
       <c r="H6" s="7">
         <v>35</v>
@@ -10985,13 +11126,13 @@
         <v>34801</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>849</v>
+        <v>891</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>850</v>
+        <v>892</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>851</v>
+        <v>893</v>
       </c>
       <c r="M6" s="7">
         <v>86</v>
@@ -11006,7 +11147,7 @@
         <v>220</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>852</v>
+        <v>894</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -11021,13 +11162,13 @@
         <v>77645</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>853</v>
+        <v>895</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>854</v>
+        <v>896</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>855</v>
+        <v>897</v>
       </c>
       <c r="H7" s="7">
         <v>55</v>
@@ -11036,13 +11177,13 @@
         <v>57110</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>856</v>
+        <v>898</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>702</v>
+        <v>747</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>857</v>
+        <v>899</v>
       </c>
       <c r="M7" s="7">
         <v>123</v>
@@ -11051,13 +11192,13 @@
         <v>134756</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>629</v>
+        <v>674</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>221</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>858</v>
+        <v>900</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -11072,13 +11213,13 @@
         <v>63485</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>859</v>
+        <v>504</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>290</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>860</v>
+        <v>901</v>
       </c>
       <c r="H8" s="7">
         <v>73</v>
@@ -11087,13 +11228,13 @@
         <v>76001</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>861</v>
+        <v>902</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>862</v>
+        <v>903</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>863</v>
+        <v>904</v>
       </c>
       <c r="M8" s="7">
         <v>132</v>
@@ -11102,13 +11243,13 @@
         <v>139486</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>864</v>
+        <v>905</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>865</v>
+        <v>906</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>866</v>
+        <v>907</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -11123,13 +11264,13 @@
         <v>43148</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>867</v>
+        <v>507</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>868</v>
+        <v>908</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>869</v>
+        <v>635</v>
       </c>
       <c r="H9" s="7">
         <v>81</v>
@@ -11141,10 +11282,10 @@
         <v>420</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>870</v>
+        <v>909</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>871</v>
+        <v>910</v>
       </c>
       <c r="M9" s="7">
         <v>121</v>
@@ -11156,10 +11297,10 @@
         <v>414</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>872</v>
+        <v>911</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>552</v>
+        <v>596</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -11227,10 +11368,10 @@
         <v>5150</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>873</v>
+        <v>912</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>874</v>
+        <v>913</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>338</v>
@@ -11242,13 +11383,13 @@
         <v>1111</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>875</v>
+        <v>914</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>179</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>876</v>
+        <v>915</v>
       </c>
       <c r="M11" s="7">
         <v>5</v>
@@ -11257,13 +11398,13 @@
         <v>6260</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>877</v>
+        <v>916</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>875</v>
+        <v>914</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>707</v>
+        <v>752</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -11278,13 +11419,13 @@
         <v>33260</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>878</v>
+        <v>917</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>879</v>
+        <v>918</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>880</v>
+        <v>919</v>
       </c>
       <c r="H12" s="7">
         <v>14</v>
@@ -11296,10 +11437,10 @@
         <v>422</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>881</v>
+        <v>920</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>882</v>
+        <v>921</v>
       </c>
       <c r="M12" s="7">
         <v>45</v>
@@ -11308,13 +11449,13 @@
         <v>48339</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>883</v>
+        <v>922</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>884</v>
+        <v>923</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>613</v>
+        <v>658</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -11329,10 +11470,10 @@
         <v>78996</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>506</v>
+        <v>550</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>885</v>
+        <v>924</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>174</v>
@@ -11344,13 +11485,13 @@
         <v>50583</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>886</v>
+        <v>925</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>149</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>809</v>
+        <v>851</v>
       </c>
       <c r="M13" s="7">
         <v>122</v>
@@ -11359,10 +11500,10 @@
         <v>129579</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>887</v>
+        <v>926</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>888</v>
+        <v>927</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>89</v>
@@ -11380,13 +11521,13 @@
         <v>127098</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>889</v>
+        <v>928</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>100</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>890</v>
+        <v>929</v>
       </c>
       <c r="H14" s="7">
         <v>120</v>
@@ -11395,13 +11536,13 @@
         <v>129348</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>891</v>
+        <v>930</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>892</v>
+        <v>931</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>893</v>
+        <v>932</v>
       </c>
       <c r="M14" s="7">
         <v>238</v>
@@ -11410,13 +11551,13 @@
         <v>256446</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>894</v>
+        <v>933</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>895</v>
+        <v>934</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>896</v>
+        <v>935</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -11431,13 +11572,13 @@
         <v>84320</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>897</v>
+        <v>936</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>898</v>
+        <v>633</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>899</v>
+        <v>937</v>
       </c>
       <c r="H15" s="7">
         <v>120</v>
@@ -11446,13 +11587,13 @@
         <v>128863</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>900</v>
+        <v>938</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>901</v>
+        <v>939</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>902</v>
+        <v>940</v>
       </c>
       <c r="M15" s="7">
         <v>201</v>
@@ -11461,13 +11602,13 @@
         <v>213183</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>903</v>
+        <v>941</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>904</v>
+        <v>942</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>905</v>
+        <v>943</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -11482,13 +11623,13 @@
         <v>170576</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>906</v>
+        <v>944</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>907</v>
+        <v>945</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>908</v>
+        <v>946</v>
       </c>
       <c r="H16" s="7">
         <v>182</v>
@@ -11497,13 +11638,13 @@
         <v>198100</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>780</v>
+        <v>821</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>909</v>
+        <v>947</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>910</v>
+        <v>948</v>
       </c>
       <c r="M16" s="7">
         <v>345</v>
@@ -11512,13 +11653,13 @@
         <v>368675</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>911</v>
+        <v>949</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>912</v>
+        <v>950</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>913</v>
+        <v>951</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -11586,10 +11727,10 @@
         <v>9402</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>914</v>
+        <v>952</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>915</v>
+        <v>953</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>247</v>
@@ -11601,13 +11742,13 @@
         <v>2966</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>916</v>
+        <v>954</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>751</v>
+        <v>792</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>478</v>
+        <v>522</v>
       </c>
       <c r="M18" s="7">
         <v>12</v>
@@ -11619,10 +11760,10 @@
         <v>187</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>917</v>
+        <v>955</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>918</v>
+        <v>956</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -11637,13 +11778,13 @@
         <v>39707</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>919</v>
+        <v>957</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>342</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>920</v>
+        <v>958</v>
       </c>
       <c r="H19" s="7">
         <v>8</v>
@@ -11652,13 +11793,13 @@
         <v>7230</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>921</v>
+        <v>959</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>922</v>
+        <v>960</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>923</v>
+        <v>961</v>
       </c>
       <c r="M19" s="7">
         <v>50</v>
@@ -11667,13 +11808,13 @@
         <v>46937</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>924</v>
+        <v>962</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>150</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>925</v>
+        <v>963</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -11688,13 +11829,13 @@
         <v>125263</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>926</v>
+        <v>964</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>927</v>
+        <v>965</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>928</v>
+        <v>966</v>
       </c>
       <c r="H20" s="7">
         <v>49</v>
@@ -11703,13 +11844,13 @@
         <v>49488</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>929</v>
+        <v>967</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>930</v>
+        <v>968</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>931</v>
+        <v>969</v>
       </c>
       <c r="M20" s="7">
         <v>179</v>
@@ -11718,13 +11859,13 @@
         <v>174751</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>932</v>
+        <v>970</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>933</v>
+        <v>971</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>934</v>
+        <v>972</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -11739,13 +11880,13 @@
         <v>88775</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>935</v>
+        <v>973</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>936</v>
+        <v>974</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>937</v>
+        <v>975</v>
       </c>
       <c r="H21" s="7">
         <v>152</v>
@@ -11754,13 +11895,13 @@
         <v>153756</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>938</v>
+        <v>976</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>939</v>
+        <v>977</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>940</v>
+        <v>978</v>
       </c>
       <c r="M21" s="7">
         <v>247</v>
@@ -11769,13 +11910,13 @@
         <v>242530</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>941</v>
+        <v>979</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>942</v>
+        <v>980</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>943</v>
+        <v>981</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -11790,13 +11931,13 @@
         <v>42941</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>944</v>
+        <v>982</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>945</v>
+        <v>983</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>946</v>
+        <v>984</v>
       </c>
       <c r="H22" s="7">
         <v>96</v>
@@ -11808,10 +11949,10 @@
         <v>268</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>947</v>
+        <v>985</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>948</v>
+        <v>986</v>
       </c>
       <c r="M22" s="7">
         <v>142</v>
@@ -11820,13 +11961,13 @@
         <v>140047</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>949</v>
+        <v>987</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>950</v>
+        <v>988</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>596</v>
+        <v>989</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -11841,13 +11982,13 @@
         <v>10263</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>951</v>
+        <v>990</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>952</v>
+        <v>991</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>953</v>
+        <v>992</v>
       </c>
       <c r="H23" s="7">
         <v>23</v>
@@ -11859,10 +12000,10 @@
         <v>239</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>954</v>
+        <v>993</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>955</v>
+        <v>994</v>
       </c>
       <c r="M23" s="7">
         <v>34</v>
@@ -11874,10 +12015,10 @@
         <v>133</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>956</v>
+        <v>995</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>957</v>
+        <v>996</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -11945,13 +12086,13 @@
         <v>55964</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>958</v>
+        <v>997</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>499</v>
+        <v>543</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>959</v>
+        <v>998</v>
       </c>
       <c r="H25" s="7">
         <v>33</v>
@@ -11960,13 +12101,13 @@
         <v>34490</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>960</v>
+        <v>999</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>961</v>
+        <v>482</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>962</v>
+        <v>1000</v>
       </c>
       <c r="M25" s="7">
         <v>84</v>
@@ -11975,7 +12116,7 @@
         <v>90454</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>963</v>
+        <v>1001</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>289</v>
@@ -11999,10 +12140,10 @@
         <v>164</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>964</v>
+        <v>1002</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>965</v>
+        <v>1003</v>
       </c>
       <c r="H26" s="7">
         <v>71</v>
@@ -12011,13 +12152,13 @@
         <v>78247</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>966</v>
+        <v>1004</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>967</v>
+        <v>1005</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>968</v>
+        <v>1006</v>
       </c>
       <c r="M26" s="7">
         <v>147</v>
@@ -12026,13 +12167,13 @@
         <v>155714</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>969</v>
+        <v>1007</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>970</v>
+        <v>1008</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>971</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -12047,10 +12188,10 @@
         <v>68357</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>972</v>
+        <v>645</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>973</v>
+        <v>1010</v>
       </c>
       <c r="G27" s="7" t="s">
         <v>360</v>
@@ -12062,13 +12203,13 @@
         <v>48179</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>974</v>
+        <v>1011</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>975</v>
+        <v>1012</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>976</v>
+        <v>1013</v>
       </c>
       <c r="M27" s="7">
         <v>111</v>
@@ -12077,13 +12218,13 @@
         <v>116535</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>977</v>
+        <v>1014</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>978</v>
+        <v>1015</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>979</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -12098,13 +12239,13 @@
         <v>58255</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>980</v>
+        <v>1017</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>981</v>
+        <v>1018</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>982</v>
+        <v>1019</v>
       </c>
       <c r="H28" s="7">
         <v>40</v>
@@ -12113,13 +12254,13 @@
         <v>44847</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>983</v>
+        <v>1020</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>984</v>
+        <v>1021</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>985</v>
+        <v>1022</v>
       </c>
       <c r="M28" s="7">
         <v>96</v>
@@ -12128,13 +12269,13 @@
         <v>103102</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>986</v>
+        <v>1023</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>987</v>
+        <v>1024</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>988</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -12149,13 +12290,13 @@
         <v>45369</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>989</v>
+        <v>1026</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>990</v>
+        <v>1027</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>991</v>
+        <v>1028</v>
       </c>
       <c r="H29" s="7">
         <v>59</v>
@@ -12164,13 +12305,13 @@
         <v>61865</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>992</v>
+        <v>1029</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>993</v>
+        <v>1030</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>994</v>
+        <v>506</v>
       </c>
       <c r="M29" s="7">
         <v>103</v>
@@ -12179,13 +12320,13 @@
         <v>107234</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>534</v>
+        <v>578</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>995</v>
+        <v>1031</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>897</v>
+        <v>936</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -12200,13 +12341,13 @@
         <v>58502</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>996</v>
+        <v>1032</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>997</v>
+        <v>1033</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>998</v>
+        <v>1034</v>
       </c>
       <c r="H30" s="7">
         <v>105</v>
@@ -12215,13 +12356,13 @@
         <v>114380</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>999</v>
+        <v>1035</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>1000</v>
+        <v>1036</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>1001</v>
+        <v>1037</v>
       </c>
       <c r="M30" s="7">
         <v>161</v>
@@ -12230,13 +12371,13 @@
         <v>172882</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>1002</v>
+        <v>1038</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>1003</v>
+        <v>1039</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>1004</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -12307,7 +12448,7 @@
         <v>78</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>1005</v>
+        <v>1041</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>185</v>
@@ -12319,13 +12460,13 @@
         <v>909</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>1006</v>
+        <v>1042</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>179</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>1007</v>
+        <v>1043</v>
       </c>
       <c r="M32" s="7">
         <v>4</v>
@@ -12337,10 +12478,10 @@
         <v>228</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>874</v>
+        <v>913</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>754</v>
+        <v>795</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -12355,13 +12496,13 @@
         <v>8372</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>1008</v>
+        <v>1044</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>881</v>
+        <v>920</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>669</v>
+        <v>714</v>
       </c>
       <c r="H33" s="7">
         <v>2</v>
@@ -12370,7 +12511,7 @@
         <v>2380</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>1009</v>
+        <v>1045</v>
       </c>
       <c r="K33" s="7" t="s">
         <v>179</v>
@@ -12385,13 +12526,13 @@
         <v>10752</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>1010</v>
+        <v>1046</v>
       </c>
       <c r="P33" s="7" t="s">
         <v>379</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>1011</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -12406,13 +12547,13 @@
         <v>41070</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>679</v>
+        <v>724</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>1012</v>
+        <v>1048</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>829</v>
+        <v>871</v>
       </c>
       <c r="H34" s="7">
         <v>14</v>
@@ -12421,13 +12562,13 @@
         <v>14126</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>838</v>
+        <v>880</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>383</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>1013</v>
+        <v>1049</v>
       </c>
       <c r="M34" s="7">
         <v>55</v>
@@ -12436,13 +12577,13 @@
         <v>55196</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>1014</v>
+        <v>1050</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>844</v>
+        <v>886</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>573</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -12457,13 +12598,13 @@
         <v>88080</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>1015</v>
+        <v>1052</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>1016</v>
+        <v>1053</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>1017</v>
+        <v>1054</v>
       </c>
       <c r="H35" s="7">
         <v>103</v>
@@ -12472,13 +12613,13 @@
         <v>99815</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>1018</v>
+        <v>1055</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>1019</v>
+        <v>1056</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>1020</v>
+        <v>1057</v>
       </c>
       <c r="M35" s="7">
         <v>191</v>
@@ -12487,13 +12628,13 @@
         <v>187895</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>1021</v>
+        <v>1058</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>1022</v>
+        <v>1059</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>1023</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -12508,13 +12649,13 @@
         <v>61659</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>1024</v>
+        <v>1061</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>1025</v>
+        <v>1062</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>1026</v>
+        <v>1063</v>
       </c>
       <c r="H36" s="7">
         <v>86</v>
@@ -12523,13 +12664,13 @@
         <v>84254</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>1027</v>
+        <v>1064</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>1028</v>
+        <v>1065</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>1029</v>
+        <v>1066</v>
       </c>
       <c r="M36" s="7">
         <v>149</v>
@@ -12538,10 +12679,10 @@
         <v>145913</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>1030</v>
+        <v>1067</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>1031</v>
+        <v>1068</v>
       </c>
       <c r="Q36" s="7" t="s">
         <v>47</v>
@@ -12559,13 +12700,13 @@
         <v>8771</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>843</v>
+        <v>885</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>664</v>
+        <v>709</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>1032</v>
+        <v>1069</v>
       </c>
       <c r="H37" s="7">
         <v>15</v>
@@ -12574,13 +12715,13 @@
         <v>15216</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>1033</v>
+        <v>1070</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>1034</v>
+        <v>1071</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>1035</v>
+        <v>1072</v>
       </c>
       <c r="M37" s="7">
         <v>23</v>
@@ -12592,10 +12733,10 @@
         <v>125</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>1036</v>
+        <v>1073</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>1037</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -12663,13 +12804,13 @@
         <v>2792</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>1038</v>
+        <v>1075</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>1039</v>
+        <v>1076</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>1040</v>
+        <v>1077</v>
       </c>
       <c r="H39" s="7">
         <v>0</v>
@@ -12684,7 +12825,7 @@
         <v>181</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>1041</v>
+        <v>1078</v>
       </c>
       <c r="M39" s="7">
         <v>3</v>
@@ -12693,13 +12834,13 @@
         <v>2792</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>748</v>
+        <v>789</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>1042</v>
+        <v>1079</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>521</v>
+        <v>565</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -12714,13 +12855,13 @@
         <v>25131</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>1043</v>
+        <v>1080</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>1044</v>
+        <v>1081</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>1045</v>
+        <v>1082</v>
       </c>
       <c r="H40" s="7">
         <v>7</v>
@@ -12729,13 +12870,13 @@
         <v>6627</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>1046</v>
+        <v>1083</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>917</v>
+        <v>955</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>1047</v>
+        <v>1084</v>
       </c>
       <c r="M40" s="7">
         <v>31</v>
@@ -12750,7 +12891,7 @@
         <v>189</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>1048</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -12765,13 +12906,13 @@
         <v>52555</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>994</v>
+        <v>506</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>1049</v>
+        <v>1086</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>1050</v>
+        <v>1087</v>
       </c>
       <c r="H41" s="7">
         <v>19</v>
@@ -12780,13 +12921,13 @@
         <v>18514</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>1051</v>
+        <v>1088</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>1052</v>
+        <v>1089</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>801</v>
+        <v>842</v>
       </c>
       <c r="M41" s="7">
         <v>70</v>
@@ -12795,13 +12936,13 @@
         <v>71069</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>1053</v>
+        <v>1090</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>1054</v>
+        <v>1091</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>1055</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -12816,13 +12957,13 @@
         <v>101811</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>1056</v>
+        <v>1093</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>1057</v>
+        <v>1094</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>1058</v>
+        <v>1095</v>
       </c>
       <c r="H42" s="7">
         <v>102</v>
@@ -12831,13 +12972,13 @@
         <v>106005</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>1059</v>
+        <v>1096</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>1060</v>
+        <v>1097</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>1061</v>
+        <v>1098</v>
       </c>
       <c r="M42" s="7">
         <v>203</v>
@@ -12846,13 +12987,13 @@
         <v>207816</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>1062</v>
+        <v>1099</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>1063</v>
+        <v>1100</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>1064</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -12867,13 +13008,13 @@
         <v>45455</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>1065</v>
+        <v>1102</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>1066</v>
+        <v>1103</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>1067</v>
+        <v>1104</v>
       </c>
       <c r="H43" s="7">
         <v>86</v>
@@ -12882,13 +13023,13 @@
         <v>91747</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>1068</v>
+        <v>1105</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>1069</v>
+        <v>1106</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>1070</v>
+        <v>1107</v>
       </c>
       <c r="M43" s="7">
         <v>132</v>
@@ -12897,13 +13038,13 @@
         <v>137202</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>1071</v>
+        <v>1108</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>1072</v>
+        <v>1109</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>1073</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -12918,10 +13059,10 @@
         <v>34408</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>1074</v>
+        <v>1111</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>1075</v>
+        <v>1112</v>
       </c>
       <c r="G44" s="7" t="s">
         <v>322</v>
@@ -12933,13 +13074,13 @@
         <v>49029</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>1076</v>
+        <v>1113</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>1077</v>
+        <v>1114</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>1078</v>
+        <v>1115</v>
       </c>
       <c r="M44" s="7">
         <v>81</v>
@@ -12948,10 +13089,10 @@
         <v>83437</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>977</v>
+        <v>1014</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>1079</v>
+        <v>1116</v>
       </c>
       <c r="Q44" s="7" t="s">
         <v>369</v>
@@ -12996,7 +13137,7 @@
         <v>520</v>
       </c>
       <c r="N45" s="7">
-        <v>534074</v>
+        <v>534073</v>
       </c>
       <c r="O45" s="7" t="s">
         <v>70</v>
@@ -13022,13 +13163,13 @@
         <v>53136</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>1080</v>
+        <v>1117</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>790</v>
+        <v>831</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>1081</v>
+        <v>1118</v>
       </c>
       <c r="H46" s="7">
         <v>19</v>
@@ -13037,13 +13178,13 @@
         <v>20475</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>1082</v>
+        <v>1119</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>664</v>
+        <v>709</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>1083</v>
+        <v>1120</v>
       </c>
       <c r="M46" s="7">
         <v>67</v>
@@ -13055,10 +13196,10 @@
         <v>247</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>879</v>
+        <v>918</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>1084</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -13076,10 +13217,10 @@
         <v>87</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>1085</v>
+        <v>1122</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>1086</v>
+        <v>1123</v>
       </c>
       <c r="H47" s="7">
         <v>39</v>
@@ -13088,13 +13229,13 @@
         <v>41559</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>790</v>
+        <v>831</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>1087</v>
+        <v>1124</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>1088</v>
+        <v>1125</v>
       </c>
       <c r="M47" s="7">
         <v>110</v>
@@ -13103,13 +13244,13 @@
         <v>124182</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>1089</v>
+        <v>1126</v>
       </c>
       <c r="P47" s="7" t="s">
         <v>94</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>1090</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -13124,13 +13265,13 @@
         <v>79278</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>1091</v>
+        <v>1128</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>1092</v>
+        <v>1129</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>1093</v>
+        <v>1130</v>
       </c>
       <c r="H48" s="7">
         <v>72</v>
@@ -13139,13 +13280,13 @@
         <v>75450</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>1090</v>
+        <v>1127</v>
       </c>
       <c r="K48" s="7" t="s">
         <v>171</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>1094</v>
+        <v>1131</v>
       </c>
       <c r="M48" s="7">
         <v>143</v>
@@ -13157,10 +13298,10 @@
         <v>234</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>1095</v>
+        <v>1132</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>1096</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -13175,13 +13316,13 @@
         <v>146085</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>1097</v>
+        <v>1134</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>1098</v>
+        <v>1135</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>1099</v>
+        <v>1136</v>
       </c>
       <c r="H49" s="7">
         <v>138</v>
@@ -13190,13 +13331,13 @@
         <v>145713</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>1100</v>
+        <v>1137</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>1101</v>
+        <v>1138</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>1102</v>
+        <v>508</v>
       </c>
       <c r="M49" s="7">
         <v>267</v>
@@ -13208,10 +13349,10 @@
         <v>365</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>1103</v>
+        <v>1139</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>1104</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -13229,10 +13370,10 @@
         <v>473</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>1105</v>
+        <v>1141</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>1106</v>
+        <v>1142</v>
       </c>
       <c r="H50" s="7">
         <v>132</v>
@@ -13241,13 +13382,13 @@
         <v>138903</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>1107</v>
+        <v>1143</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>1108</v>
+        <v>1144</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>1109</v>
+        <v>1145</v>
       </c>
       <c r="M50" s="7">
         <v>240</v>
@@ -13256,10 +13397,10 @@
         <v>262375</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>711</v>
+        <v>756</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>1110</v>
+        <v>1146</v>
       </c>
       <c r="Q50" s="7" t="s">
         <v>195</v>
@@ -13277,13 +13418,13 @@
         <v>158721</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>1111</v>
+        <v>1147</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>1112</v>
+        <v>1148</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>1113</v>
+        <v>1149</v>
       </c>
       <c r="H51" s="7">
         <v>236</v>
@@ -13292,13 +13433,13 @@
         <v>257673</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>1114</v>
+        <v>1150</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>1115</v>
+        <v>1151</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>1116</v>
+        <v>1152</v>
       </c>
       <c r="M51" s="7">
         <v>376</v>
@@ -13307,13 +13448,13 @@
         <v>416394</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>1117</v>
+        <v>1153</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>1118</v>
+        <v>1154</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>1030</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -13381,13 +13522,13 @@
         <v>16092</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>1119</v>
+        <v>1155</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>1120</v>
+        <v>1156</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>1121</v>
+        <v>1157</v>
       </c>
       <c r="H53" s="7">
         <v>8</v>
@@ -13396,13 +13537,13 @@
         <v>8214</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>1122</v>
+        <v>1158</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>1005</v>
+        <v>1041</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>664</v>
+        <v>709</v>
       </c>
       <c r="M53" s="7">
         <v>23</v>
@@ -13411,13 +13552,13 @@
         <v>24306</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>752</v>
+        <v>793</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>1122</v>
+        <v>1158</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>1123</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -13432,13 +13573,13 @@
         <v>29559</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>1124</v>
+        <v>477</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>1010</v>
+        <v>1046</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>1125</v>
+        <v>1160</v>
       </c>
       <c r="H54" s="7">
         <v>21</v>
@@ -13447,13 +13588,13 @@
         <v>23275</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>1126</v>
+        <v>1161</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>1127</v>
+        <v>1162</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>923</v>
+        <v>961</v>
       </c>
       <c r="M54" s="7">
         <v>46</v>
@@ -13462,13 +13603,13 @@
         <v>52834</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>918</v>
+        <v>956</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>1128</v>
+        <v>1163</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>1129</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -13483,10 +13624,10 @@
         <v>108287</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>531</v>
+        <v>575</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>1130</v>
+        <v>1165</v>
       </c>
       <c r="G55" s="7" t="s">
         <v>441</v>
@@ -13498,10 +13639,10 @@
         <v>71460</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>1131</v>
+        <v>1166</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>1132</v>
+        <v>1167</v>
       </c>
       <c r="L55" s="7" t="s">
         <v>197</v>
@@ -13513,13 +13654,13 @@
         <v>179747</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>510</v>
+        <v>554</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>1133</v>
+        <v>1168</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>1134</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -13534,13 +13675,13 @@
         <v>347636</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>1135</v>
+        <v>1170</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>1136</v>
+        <v>1171</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>1137</v>
+        <v>1172</v>
       </c>
       <c r="H56" s="7">
         <v>335</v>
@@ -13549,13 +13690,13 @@
         <v>362481</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>1138</v>
+        <v>1173</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>1139</v>
+        <v>1174</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>1140</v>
+        <v>1175</v>
       </c>
       <c r="M56" s="7">
         <v>675</v>
@@ -13564,13 +13705,13 @@
         <v>710118</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>1141</v>
+        <v>1176</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>1142</v>
+        <v>1177</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>1143</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -13585,13 +13726,13 @@
         <v>222046</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>1144</v>
+        <v>1179</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>1145</v>
+        <v>1180</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>1146</v>
+        <v>1181</v>
       </c>
       <c r="H57" s="7">
         <v>259</v>
@@ -13600,13 +13741,13 @@
         <v>285873</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>1147</v>
+        <v>1182</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>1148</v>
+        <v>1183</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>1149</v>
+        <v>1184</v>
       </c>
       <c r="M57" s="7">
         <v>474</v>
@@ -13615,13 +13756,13 @@
         <v>507920</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>1150</v>
+        <v>1185</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>1151</v>
+        <v>1186</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>1152</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
@@ -13636,13 +13777,13 @@
         <v>51868</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>1153</v>
+        <v>1188</v>
       </c>
       <c r="F58" s="7" t="s">
         <v>62</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>1032</v>
+        <v>1069</v>
       </c>
       <c r="H58" s="7">
         <v>66</v>
@@ -13651,13 +13792,13 @@
         <v>73522</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>1154</v>
+        <v>1189</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>1155</v>
+        <v>1190</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>695</v>
+        <v>740</v>
       </c>
       <c r="M58" s="7">
         <v>116</v>
@@ -13666,13 +13807,13 @@
         <v>125390</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>1156</v>
+        <v>1191</v>
       </c>
       <c r="P58" s="7" t="s">
-        <v>1157</v>
+        <v>1192</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>1158</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -13737,16 +13878,16 @@
         <v>148</v>
       </c>
       <c r="D60" s="7">
-        <v>162621</v>
+        <v>162620</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>954</v>
+        <v>993</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>1052</v>
+        <v>1089</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>1159</v>
+        <v>1194</v>
       </c>
       <c r="H60" s="7">
         <v>74</v>
@@ -13755,13 +13896,13 @@
         <v>77646</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>1160</v>
+        <v>1195</v>
       </c>
       <c r="K60" s="7" t="s">
         <v>280</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>1161</v>
+        <v>1196</v>
       </c>
       <c r="M60" s="7">
         <v>222</v>
@@ -13770,13 +13911,13 @@
         <v>240266</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>1162</v>
+        <v>1197</v>
       </c>
       <c r="P60" s="7" t="s">
-        <v>1163</v>
+        <v>1198</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>1164</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -13788,16 +13929,16 @@
         <v>298</v>
       </c>
       <c r="D61" s="7">
-        <v>317849</v>
+        <v>317848</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>1165</v>
+        <v>1200</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>557</v>
+        <v>601</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>1166</v>
+        <v>1201</v>
       </c>
       <c r="H61" s="7">
         <v>181</v>
@@ -13806,13 +13947,13 @@
         <v>193261</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>1167</v>
+        <v>1202</v>
       </c>
       <c r="K61" s="7" t="s">
-        <v>1168</v>
+        <v>1203</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>1169</v>
+        <v>1204</v>
       </c>
       <c r="M61" s="7">
         <v>479</v>
@@ -13821,10 +13962,10 @@
         <v>511110</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>1170</v>
+        <v>1205</v>
       </c>
       <c r="P61" s="7" t="s">
-        <v>1171</v>
+        <v>1206</v>
       </c>
       <c r="Q61" s="7" t="s">
         <v>61</v>
@@ -13839,16 +13980,16 @@
         <v>587</v>
       </c>
       <c r="D62" s="7">
-        <v>610440</v>
+        <v>610439</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>1172</v>
+        <v>1207</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>1173</v>
+        <v>489</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>1174</v>
+        <v>1208</v>
       </c>
       <c r="H62" s="7">
         <v>346</v>
@@ -13857,13 +13998,13 @@
         <v>362601</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>1013</v>
+        <v>1049</v>
       </c>
       <c r="K62" s="7" t="s">
-        <v>761</v>
+        <v>802</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>1175</v>
+        <v>1209</v>
       </c>
       <c r="M62" s="7">
         <v>933</v>
@@ -13872,13 +14013,13 @@
         <v>973041</v>
       </c>
       <c r="O62" s="7" t="s">
-        <v>1176</v>
+        <v>1210</v>
       </c>
       <c r="P62" s="7" t="s">
-        <v>808</v>
+        <v>850</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>1177</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -13890,16 +14031,16 @@
         <v>995</v>
       </c>
       <c r="D63" s="7">
-        <v>1035385</v>
+        <v>1035384</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>1178</v>
+        <v>1212</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>650</v>
+        <v>695</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>1179</v>
+        <v>1213</v>
       </c>
       <c r="H63" s="7">
         <v>1045</v>
@@ -13908,13 +14049,13 @@
         <v>1099075</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>1180</v>
+        <v>1214</v>
       </c>
       <c r="K63" s="7" t="s">
-        <v>1181</v>
+        <v>1215</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>1182</v>
+        <v>1216</v>
       </c>
       <c r="M63" s="7">
         <v>2040</v>
@@ -13923,13 +14064,13 @@
         <v>2134460</v>
       </c>
       <c r="O63" s="7" t="s">
-        <v>1183</v>
+        <v>1217</v>
       </c>
       <c r="P63" s="7" t="s">
         <v>45</v>
       </c>
       <c r="Q63" s="7" t="s">
-        <v>1184</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
@@ -13944,13 +14085,13 @@
         <v>688747</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>1185</v>
+        <v>1219</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>1186</v>
+        <v>1220</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>819</v>
+        <v>861</v>
       </c>
       <c r="H64" s="7">
         <v>911</v>
@@ -13959,13 +14100,13 @@
         <v>964613</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>1187</v>
+        <v>1221</v>
       </c>
       <c r="K64" s="7" t="s">
-        <v>1188</v>
+        <v>1222</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>822</v>
+        <v>864</v>
       </c>
       <c r="M64" s="7">
         <v>1573</v>
@@ -13974,13 +14115,13 @@
         <v>1653361</v>
       </c>
       <c r="O64" s="7" t="s">
-        <v>1189</v>
+        <v>1223</v>
       </c>
       <c r="P64" s="7" t="s">
-        <v>1190</v>
+        <v>1224</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>1191</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
@@ -13992,16 +14133,16 @@
         <v>501</v>
       </c>
       <c r="D65" s="7">
-        <v>536258</v>
+        <v>536257</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>1192</v>
+        <v>1226</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>1193</v>
+        <v>1227</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>1194</v>
+        <v>1228</v>
       </c>
       <c r="H65" s="7">
         <v>756</v>
@@ -14010,13 +14151,13 @@
         <v>820373</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>1195</v>
+        <v>1229</v>
       </c>
       <c r="K65" s="7" t="s">
-        <v>1196</v>
+        <v>623</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>1197</v>
+        <v>1230</v>
       </c>
       <c r="M65" s="7">
         <v>1257</v>
@@ -14025,13 +14166,13 @@
         <v>1356631</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>1198</v>
+        <v>1231</v>
       </c>
       <c r="P65" s="7" t="s">
-        <v>1199</v>
+        <v>1232</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>1200</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -14043,7 +14184,7 @@
         <v>3191</v>
       </c>
       <c r="D66" s="7">
-        <v>3351298</v>
+        <v>3351297</v>
       </c>
       <c r="E66" s="7" t="s">
         <v>70</v>
